--- a/500all/speech_level/speeches_CHRG-114hhrg20742.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. The subcommittee will come to order.    Good afternoon. I would like to thank my colleagues for joining me in convening this important joint subcommittee hearing. Unfortunately, Chairman Poe couldn't join us today, but I know he is very interested and engaged on the many challenges presented to the U.S. policymakers in Pakistan.    I would like to ask unanimous consent that his opening statement be inserted for the record. And, without objection, the hearing record will remain open for 5 business days to allow for further statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    As we all know, the United States has spent tens of billions in taxpayer dollars in the form of aid to Pakistan since 9/11, all in the hope that Pakistan would become a partner in the fight against terrorism. Unfortunately, despite this significant investment, Pakistani military and intelligence services are still linked to terrorist groups.    While the administration and the Pakistanis argue that there have been some successes in the fight against terrorist elements, particularly in Shawal Valley, terrorist organizations with close ties to Pakistan's military elite have been left untouched to the point of thriving while Pakistan's governing elite turns a blind eye.    Today we will discuss the administration's policy toward Pakistan and take a closer look at U.S. goals and expectations and options with Pakistan. The U.S.-Pakistan relationship has always been complicated. Pakistan is an important country of over 200 million people. It has nuclear capabilities and is strategically located with important neighbors, including China, India, and Afghanistan. But this country poses challenges that have plagued the United States for decades.    Given its significance, we can't afford to be spontaneous with our policy toward Pakistan as there could be far-reaching consequences. At the same time, many of us in Congress are unwilling to continue down this same failed path that consists of stacks of U.S. aid dollars without much support in the fight against terrorists to show for it. To be frank, Pakistan likes the United States because for decades we have given them a substantial amount of aid, especially to the Pakistani military, while they hope that they can prevent us from getting too close with India.    The United States tolerates Pakistan because it claims to be in the fight with us on the global war on terror. Recent history shows us that while Pakistan is getting money and weapons, U.S. goals in the war on terror are sadly lacking, and Pakistan may in fact be using the assets we provide them to undermine some of our strategic diplomatic efforts in the region.    Pakistan claims to be fighting terrorism, but they refuse to fight some groups who we know to be terrorists. Many observers see Pakistani forces as selective in the terrorist groups it fights, leaving others to continue to wreak havoc, especially when those groups target India.    Let us not forget that Pakistan was less than helpful in the hunt and ultimately demise of Osama bin Laden. And, to this day, they are holding Dr. Shakil Afridi under arrest, a hero to our country, for aiding in bin Laden's capture. Patience is growing very thin.    The recent failure to get consensus on the proposed F-16 sale is evidence of the newly endemic weariness where Pakistan is concerned. If our current efforts in Pakistan are not producing the results we seek, then what are our options? We could simply turn the money off, saving taxpayers billions of dollars. We could enforce sanctions or designate Pakistan as a State Sponsor of Terrorism. Sanctions were used in the '90s but without much effect.    I hope to hear from our witnesses as to what sort of stick and carrot approach might actually work with Pakistan, so we can have a strategic partnership on issues of mutual interest.    Fifteen years have passed since 9/11. Billions of dollars have been spent, and far too little change has occurred in Pakistan. Should we continue our failed policy and attempt to convince ourselves that Pakistan will one day see eye to eye with the United States, or should we look at the U.S.-Pakistan relationship through a new lens?    I look forward to today's constructive discussion to guide our policy efforts with Pakistan, and I turn to the ranking member, Mr. Sherman, for any comments that he might have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. We have relations with I think close to 200 countries. The default position is we don't give them money. So those who suggest aid to Pakistan have got to show that there is a strong justification for doing so. The evidence is not encouraging.    General Musharraf spoke on television in February about how Pakistan supported--provided support for Lashkar-e-Tayyiba, also known as LeT, and to the JeM, and essentially said terrorism was fine as long as it is directed at India. His remarks didn't provoke much of a reaction because much of the power structure in Pakistan agrees with him.    The Pakistani Government, as our chairman just pointed out, continues to hold Dr. Afridi. So not only do they shelter bin Laden, they punish those who helped us unshelter bin Laden. And the military establishment in Pakistan stokes paranoia about India, meddles in Afghanistan, and seems to be trying to weaken Afghanistan, so as to have a divided Pashtun population.    Regardless of how we answer the friend or foe question, our relationship with Pakistan is important. But keep in mind, you would think we would only provide aid to those countries where we don't have to ask the question: Friend or foe? But Pakistan is a nation of 180 billion people with a history of terrorist activities, 100 nuclear weapons, very confused body politic. The administration is requesting money for Pakistan in a number of different accounts, including 740 million of assistance on the civilian side, 265 million on the military side, and aid in other categories as well.    You would think that we would at least condition a large portion of this aid on the release of Dr. Afridi and his family. Providing more assistance to a government that has supported terrorists and has shown itself not very capable or serious about combatting terrorism may not be the very best use of taxpayer money.    We should be looking to reorient the money we do spend. I would like to focus on three things: Human rights, education, and public diplomacy. First, the Pakistani Government has a regrettable record of oppressing some of the major components of its country, large minorities, including the Sindh and the Baloch. Free speech and political dialogue are restricted.    Extrajudicial killings are common. For example, Anwar Leghari, the brother of a dear friend of mine, was assassinated in Sindh just last year, and the Pakistani Government has closed the file. I want to thank our State Department for at least raising a question. They have reopened the file, but that doesn't mean they will actually do anything.    A country with blasphemy laws is just begging individuals to claim that minorities have said this or that, unprovable, and them impose terrible penalties on someone they happen to dislike. It is no surprise that extremism flourishes in this environment.    Second, education. Pakistan must reform its education system. Many textbooks contain content that perpetuates minority stereotypes and feeds support for Islamic extremism. A lack of government-funded schools has led to an increase in the number of extremist madrassas in Sindh and other places in Pakistan. Girls are often denied education.    As I proposed I think at our last hearing, if we do provide aid, we ought to provide free textbooks, so that parents don't have that burden, aren't tempted to send their kids to a madrassa, and so that the textbooks, while they may not reflect all red, white, and blue values, will at least not contain material that would be an anathema to the American people.    And, finally, it is very hard for corrupt people to steal textbooks, especially in a country where the textbooks are made free by the American people.    I co-chair the Sindh Caucus, and so I focused on southern Pakistan in particular. And I have worked to make sure that we communicate to Sindh and other parts of Pakistan through Voice of America in the language people speak in their homes. The importance of Pakistan seems to be so overwhelming that we spend billions of dollars giving it to a government that supports terrorism, but we don't spend $1.5 broadcasting in the Sindhi language. What a bizarre approach. What a pro-Islamabad approach. What an approach that does not match America's interest.    Finally, if we are going to win over the Muslim world, we need to have the State Department maybe hire one or a few people--fewer people that are experts in the 1800s European diplomacy and hire at least one person whose job description says ``understand the Quran, the hadith,'' you don't have to write a fatwa but you should have read 1,000 of them.    To think that we are waging a war for the minds of Muslims around the world and haven't hired a single person because of their understanding of that religion and how it is used and how it is misused shows an insular thinking in a bureaucracy that prizes an understanding of the machinations of metronic in European diplomacy two centuries ago.    I yield back.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. Thank you, Chairman Salmon, for conducting this hearing. I also would like to thank Mr. Rohrabacher and--who is here--I guess Mr. Poe as well, Ranking Member Sherman, and I would like to thank all the members that took the time to be here in this important hearing.    Of course, I would like to thank our panel for being here to discuss the topic at hand--Pakistan. Since 9/11, the United States' relationship with Pakistan has ebbed and flowed. Over the last decade and a half, several missteps have taken both sides into controversy, including instances of miscommunication, competing national interest, and fundamental failure to broaden and deepen the relationship as a whole.    Indeed, it seems that the two countries trend toward a one-dimensional transactional relationship centered along security concerns, instead of a broad partnership that includes trade and cultural linkages, is something that is problematic. However, over the last few years, even the security concerns have not equated to a smooth relationship. While Islamabad has helped the United States capture and kill numerous al-Qaeda members, including several senior leaders in its support for groups like Taliban, the Haqqani Network, Lashkar-e-Tayyiba, these things undermine critical U.S. national security interest.    Further complicating the issue is the fact that both leaders of the Taliban were killed or died within Pakistani borders, and the former head of al-Qaeda, Osama bin Laden, was also killed in Pakistan, only miles from the country's capital. There is little reason to suggest that Pakistan is going to change its strategic calculus.    It is critical that we vigorously consider our relationship with Pakistan and recognize that Islamabad is a willing and able partner in certain areas, while hostile in others. To be sure, accepting this paradigm does not mean abandoning Pakistan altogether. At stake in the region are some of America's most vital national security interests, including ensuring that neither Afghanistan nor Pakistan serves as a safe haven for global terrorists, keeping Pakistan's nuclear weapons out of the hands of terrorists and preventing war between India and Pakistan that could potentially go nuclear.    These interests warrant continued outreach and cooperation with Islamabad. To that end, the United States should consider a more balanced approach when supplying aid, an approach that favors education and economic aid over military assistance. The provision of U.S. weapons cannot reshape Pakistan's will to maintain its militant proxies on its western border, but those weapons do equip Pakistan to challenge India on its eastern border.    I look forward to hearing from our witnesses today and seeing how we can shape this relationship to the benefit of both countries.    With that, I yield back.</t>
   </si>
   <si>
@@ -88,18 +79,12 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you very much, Ambassador.    On the clocks, please look at the amber light and the red lights. I am not going to hold you to--this is too important an issue, and we want to hear everything that you have to say, but I know we have a lot of questions up here, too.    Mr. Roggio.</t>
   </si>
   <si>
-    <t>Roggio</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Roggio. Thank you, sir. Chairman Salmon, Ranking Members Sherman and Keating, and the rest of the committees, thank you very much for having us here today to talk about this extremely important issue.    You properly asked the question of whether Pakistan is a friend or a foe, and unequivocally the answer is a foe. Pakistan may combat some groups that threaten it--movement of the Taliban in Pakistan, Islamic movement in Uzbekistan, groups like that that are fighting the Pakistani State. However, they support numerous terrorist organizations, organizations that are listed by the U.S. Government as foreign terrorist organizations.    In my testimony, I list six and give a brief description of the activities, but we can list dozens or scores of groups that Pakistan supports in India, in Afghanistan, groups that are designated terrorist organizations, groups that provide aid and support for al-Qaeda, groups whose leaders serve as the deep bench for al-Qaeda and other terrorist groups when their leadership is winnowed down via drone strikes by the U.S. and Pakistan's tribal areas.    Again, the evidence is indisputable. Just this weekend, the Indians killed a Kashmiri terrorist who is a member of Hizb-ul-Mujahideen. This is a nasty terrorist organization. And, Pakistan, did they welcome this killing? No. In fact, they denounced it and referred to him as a Kashmiri separatist. This is an individual who recruits online for holy war and is recruiting youth and poisoning the youth to conduct terrorist attacks.    And lest we pretend that, well, this has just been in Pakistan an issue with Pakistan and Kashmir, it is not. These Kashmiri terrorist groups that have been aided by the Pakistani State base themselves in Afghanistan. I could list groups--Lashkar-e-Tayyiba, Harakat-ul-Mujahideen, who the State Department said as recently as 2014 is running training camps inside Afghanistan.    These groups are attacking and killing U.S. soldiers, and I haven't even touched on groups like the Taliban, the Haqqani Network, or the Mullah Nazir Group. These are just small groups. I concur--and for the interest of brevity and time--Ambassador Khalilzad's statements on the Afghan Taliban, Haqqani Network, I concur with 100 percent.    What the Pakistanis are doing, they are playing a fantastic shell game. They have this narrative called good Taliban versus bad Taliban. The good Taliban is any group that the Pakistani likes, and those are groups that don't attack the Pakistani State. These are groups that carry out Pakistan's foreign policy--Haqqani Network, Afghan Taliban, Mullah Nazir Group.    And then, even the Pakistan press referred to this, groups like Lashkar-e-Tayyiba, Hizb-ul-Mujahideen, Harakat-ul-Mujahideen--again, I could go down the list. They are considered ``good Taliban'' as well. And the bad Taliban, they are the ones that fight the Pakistani State. They are the ones being targeted in the Shawal Valley, in North Waziristan. When the Pakistanis go after these groups, they pretend that they are going after the Haqqani Network or the Mullah Nazir Group or the Afghan Taliban, but they are not.    The Pakistanis haven't named a single high, mid-level, or low-level leader killed in one of these operations, because they haven't killed any of them. They haven't captured any of them, although they are selectively targeting in the interest of the Pakistani State.    As a matter of fact, this narrative of the good Taliban versus bad Taliban, my Web site, Long War Journal, has been banned in Pakistan for 4 years because we have reported on this narrative, and it has been an issue that I have not let go of, and we are banned because Pakistan has a history of killing individuals that expose these types of situations.    Syed Shahzad was brutally executed by the ISI for his reporting on links between Pakistan's Intelligence Service and al-Qaeda, and attacks that were occurring within Pakistan. You know, Pakistan is not going to change its calculus. These groups that they support, they are doing this because they feel it is their best chance in countering India, and that is why they support them.    I also believe there is an ideological aspect within large elements within the military and intelligence services as well, and this is being reported on. So you have this confluence of it helps their policy in India, as well as they get the ideological, you know, radical jihadist support as well.    These groups are strategic depth for Afghanistan in case it has to go to war, and it uses them in Afghanistan--I am sorry, strategic depth within Pakistan against India, and it uses these groups also to conduct its policy inside of Afghanistan to target and kill U.S. forces and allied forces.    We have to change our calculus if Pakistan won't change theirs, and I concur with Ambassador Khalilzad's statements we need to--I believe all funding should stop. We should put a brake on the situation until we can really get a handle on it. Money is fungible. If we are funding Pakistani education, they can fund Pakistani militants with the money they are saving.    We have to consider sanctions. We have to consider the possibility of state sponsorship of terrorism. Do we limit or cut off trade with Pakistan? Do we restrict Pakistani's travel to the United States, cut off visas, student visas? All of these options should be on the table, unless Pakistan changes its habits and its--we have been enabling the Pakistani State for 15 years now, nothing has changed, and it has only gotten worse.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Dr. Bacon.</t>
   </si>
   <si>
-    <t>Bacon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bacon. Good afternoon. It is an honor to appear before you today to discuss Pakistan's policies toward militant groups. Thank you very much for this opportunity.    After the terrorist attack on Easter Sunday in Lahore that killed 70 people, Pakistani leaders reiterated their pledge to cease their dual track policy of treating some groups as having utility and going after only those that opposed the Pakistani State. However, unfortunately, the opposite has occurred. These distinctions have grown hardened, and the Pakistani State is not willing to reevaluate them.    Most importantly, the calculus of the Pakistani Army, the primary institution in Pakistan that wields power over these policies, remains unwavering. It is evident that no terrorist attack in Pakistan is large enough to cause them to reevaluate their position vis-a-vis their militant proxies. Instead, relations with the four major proxy groups--Lashkar-e-Tayyiba, Jaish-e-Mohamed, the Haqqani Network, and the Afghan Taliban--will remain a deeply entrenched component of Pakistan's national security policies.    Today I would like to outline the Pakistani security establishment's three-prong calculus vis-a-vis these organizations, in part because in order to get Pakistan to truly change its behavior, the United States will have to effect all three of these aspects of its calculus.    First and foremost, as is well-known, Pakistan's security establishment judges groups based on their utility vis-a-vis India. This is not simply about Kashmir. This is also about deep-seated fears that India is inherently aggressive toward Pakistan. This extends to Pakistan's support to the Afghan Taliban and the Haqqani Network, which stems from fears of Indian encirclement and a desire to prevent India from expanding its influence on Pakistan's western border.    As the military's efforts to achieve conventional parity with India grows increasingly futile, and the security situation in Afghanistan continues to deteriorate, Pakistan will remain committed to these policies.    Second, the security establishment evaluates militant groups based on how they affect the threat within Pakistan. Though there is extensive cross-fertilization between groups hostile to Pakistan and those seen as having utility, the so-called good militants not only largely abstain from violence within Pakistan, some also discourage other groups from engaging in violence in Pakistan. Breaking ties with the proxy groups runs the risk that they will turn their guns inward, dangerously compounding the terrorist threat within Pakistan.    Third, the Army raised its capability to dismantle and defeat militant groups. Because the civilian institutions are still not capable of truly dealing with terrorism, this task will fall to the Pakistani Army. Unfortunately, a military approach alone will be insufficient to tackle these four groups, and possibly could be counterproductive in efforts to do so.    It is worth briefly noting that relationships have evolved, especially since the 1990s when the Army provided extensive active assistance to a number of proxy organizations. This included resources, weapons, training, and even cover fire to enable cross-border infiltrations. In essence, it operated in the trenches with militant groups. U.S. and international pressure has shifted the way these relationships function.    By far, the most important asset that the Pakistani State continues to provide is safe haven and protection. The amount of active assistance has decreased. However, in this current environment, safe haven is also the most important asset that Pakistan could provide for these groups. All four organizations are highly capable and almost entirely self-sufficient other than their need for safe haven.    They have other sources of funding and weapons and equipment, as well as a sizeable cadre of capable and experienced operatives. They no longer rely on the Pakistani State for these things. The Pakistani Army did its job well. The remaining asset that they need and that they receive is safe haven. Yet the Army's relationship with Lashkar-e-Tayyiba, Jaish-e-Mohamed, the Haqqani Network, and the Afghan Taliban have proven resilient. These are the relationships that survived the tremendous fallout from 9/11 and the aftermath.    While we have been deeply dissatisfied with Pakistan's counterterrorism efforts, once-friendly militants saw Pakistan's cooperation with the United States as a betrayal, and they turned their guns against their patron. For Pakistan, it has been the worst of both worlds.    While the first rationale still dominates, all three reasons--the proxy group's utility against India and Afghanistan, their mitigation of the domestic threat and ability to worsen it, and the Pakistani State's limited ability to confront them--mutually reinforced the security establishment's ongoing relationship with militant proxies and ensure that these ties will remain intact for the foreseeable future.    I admit that I am skeptical of Pakistani pledges that they will deal with the ``good militants'' once they have taken care of the hostile ones. The bad militants, in their view, are not going away, in part because they work closely with the good militants. In the meantime, the so-called good militants will grow stronger, and the Pakistani State will be even more--will have an even more difficult task confronting them in the future.    I hope that by shedding light on the situation it will help the United States to better respond and manage the challenges ahead.    With that, I thank you for your attention and look forward to your questions.</t>
   </si>
   <si>
@@ -212,9 +197,6 @@
   </si>
   <si>
     <t>400343</t>
-  </si>
-  <si>
-    <t>Dana Rohrabacher</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. And before I get to Mr. Rohrabacher, we have just been pinged for a vote on the floor. And we have 10 votes, and I don't think we will be coming back afterwards. So if I could maybe get both you and Mr. Keating in.</t>
@@ -646,11 +628,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -670,13 +650,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -698,11 +676,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -722,13 +698,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -750,11 +724,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -776,11 +748,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -802,11 +772,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -826,13 +794,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -854,11 +820,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -878,13 +842,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -906,11 +868,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -932,11 +892,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -958,11 +916,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -984,11 +940,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1010,11 +964,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1036,11 +988,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1060,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1088,11 +1036,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1112,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1140,11 +1084,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1164,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1190,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1216,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1242,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1268,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1294,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1320,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1346,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1372,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1398,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1424,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1450,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1476,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1502,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1528,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1554,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1580,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1606,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1632,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1658,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1684,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1710,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1736,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1762,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1788,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1816,11 +1708,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1840,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1866,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1894,11 +1780,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1918,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1944,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>65</v>
-      </c>
-      <c r="G52" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1970,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>66</v>
-      </c>
-      <c r="H53" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1998,11 +1876,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2022,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2048,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2074,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2100,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>24</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2126,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20742.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. The subcommittee will come to order.    Good afternoon. I would like to thank my colleagues for joining me in convening this important joint subcommittee hearing. Unfortunately, Chairman Poe couldn't join us today, but I know he is very interested and engaged on the many challenges presented to the U.S. policymakers in Pakistan.    I would like to ask unanimous consent that his opening statement be inserted for the record. And, without objection, the hearing record will remain open for 5 business days to allow for further statements, questions, and extraneous materials for the record, subject to the length limitation in the rules.    As we all know, the United States has spent tens of billions in taxpayer dollars in the form of aid to Pakistan since 9/11, all in the hope that Pakistan would become a partner in the fight against terrorism. Unfortunately, despite this significant investment, Pakistani military and intelligence services are still linked to terrorist groups.    While the administration and the Pakistanis argue that there have been some successes in the fight against terrorist elements, particularly in Shawal Valley, terrorist organizations with close ties to Pakistan's military elite have been left untouched to the point of thriving while Pakistan's governing elite turns a blind eye.    Today we will discuss the administration's policy toward Pakistan and take a closer look at U.S. goals and expectations and options with Pakistan. The U.S.-Pakistan relationship has always been complicated. Pakistan is an important country of over 200 million people. It has nuclear capabilities and is strategically located with important neighbors, including China, India, and Afghanistan. But this country poses challenges that have plagued the United States for decades.    Given its significance, we can't afford to be spontaneous with our policy toward Pakistan as there could be far-reaching consequences. At the same time, many of us in Congress are unwilling to continue down this same failed path that consists of stacks of U.S. aid dollars without much support in the fight against terrorists to show for it. To be frank, Pakistan likes the United States because for decades we have given them a substantial amount of aid, especially to the Pakistani military, while they hope that they can prevent us from getting too close with India.    The United States tolerates Pakistan because it claims to be in the fight with us on the global war on terror. Recent history shows us that while Pakistan is getting money and weapons, U.S. goals in the war on terror are sadly lacking, and Pakistan may in fact be using the assets we provide them to undermine some of our strategic diplomatic efforts in the region.    Pakistan claims to be fighting terrorism, but they refuse to fight some groups who we know to be terrorists. Many observers see Pakistani forces as selective in the terrorist groups it fights, leaving others to continue to wreak havoc, especially when those groups target India.    Let us not forget that Pakistan was less than helpful in the hunt and ultimately demise of Osama bin Laden. And, to this day, they are holding Dr. Shakil Afridi under arrest, a hero to our country, for aiding in bin Laden's capture. Patience is growing very thin.    The recent failure to get consensus on the proposed F-16 sale is evidence of the newly endemic weariness where Pakistan is concerned. If our current efforts in Pakistan are not producing the results we seek, then what are our options? We could simply turn the money off, saving taxpayers billions of dollars. We could enforce sanctions or designate Pakistan as a State Sponsor of Terrorism. Sanctions were used in the '90s but without much effect.    I hope to hear from our witnesses as to what sort of stick and carrot approach might actually work with Pakistan, so we can have a strategic partnership on issues of mutual interest.    Fifteen years have passed since 9/11. Billions of dollars have been spent, and far too little change has occurred in Pakistan. Should we continue our failed policy and attempt to convince ourselves that Pakistan will one day see eye to eye with the United States, or should we look at the U.S.-Pakistan relationship through a new lens?    I look forward to today's constructive discussion to guide our policy efforts with Pakistan, and I turn to the ranking member, Mr. Sherman, for any comments that he might have.</t>
   </si>
   <si>
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. We have relations with I think close to 200 countries. The default position is we don't give them money. So those who suggest aid to Pakistan have got to show that there is a strong justification for doing so. The evidence is not encouraging.    General Musharraf spoke on television in February about how Pakistan supported--provided support for Lashkar-e-Tayyiba, also known as LeT, and to the JeM, and essentially said terrorism was fine as long as it is directed at India. His remarks didn't provoke much of a reaction because much of the power structure in Pakistan agrees with him.    The Pakistani Government, as our chairman just pointed out, continues to hold Dr. Afridi. So not only do they shelter bin Laden, they punish those who helped us unshelter bin Laden. And the military establishment in Pakistan stokes paranoia about India, meddles in Afghanistan, and seems to be trying to weaken Afghanistan, so as to have a divided Pashtun population.    Regardless of how we answer the friend or foe question, our relationship with Pakistan is important. But keep in mind, you would think we would only provide aid to those countries where we don't have to ask the question: Friend or foe? But Pakistan is a nation of 180 billion people with a history of terrorist activities, 100 nuclear weapons, very confused body politic. The administration is requesting money for Pakistan in a number of different accounts, including 740 million of assistance on the civilian side, 265 million on the military side, and aid in other categories as well.    You would think that we would at least condition a large portion of this aid on the release of Dr. Afridi and his family. Providing more assistance to a government that has supported terrorists and has shown itself not very capable or serious about combatting terrorism may not be the very best use of taxpayer money.    We should be looking to reorient the money we do spend. I would like to focus on three things: Human rights, education, and public diplomacy. First, the Pakistani Government has a regrettable record of oppressing some of the major components of its country, large minorities, including the Sindh and the Baloch. Free speech and political dialogue are restricted.    Extrajudicial killings are common. For example, Anwar Leghari, the brother of a dear friend of mine, was assassinated in Sindh just last year, and the Pakistani Government has closed the file. I want to thank our State Department for at least raising a question. They have reopened the file, but that doesn't mean they will actually do anything.    A country with blasphemy laws is just begging individuals to claim that minorities have said this or that, unprovable, and them impose terrible penalties on someone they happen to dislike. It is no surprise that extremism flourishes in this environment.    Second, education. Pakistan must reform its education system. Many textbooks contain content that perpetuates minority stereotypes and feeds support for Islamic extremism. A lack of government-funded schools has led to an increase in the number of extremist madrassas in Sindh and other places in Pakistan. Girls are often denied education.    As I proposed I think at our last hearing, if we do provide aid, we ought to provide free textbooks, so that parents don't have that burden, aren't tempted to send their kids to a madrassa, and so that the textbooks, while they may not reflect all red, white, and blue values, will at least not contain material that would be an anathema to the American people.    And, finally, it is very hard for corrupt people to steal textbooks, especially in a country where the textbooks are made free by the American people.    I co-chair the Sindh Caucus, and so I focused on southern Pakistan in particular. And I have worked to make sure that we communicate to Sindh and other parts of Pakistan through Voice of America in the language people speak in their homes. The importance of Pakistan seems to be so overwhelming that we spend billions of dollars giving it to a government that supports terrorism, but we don't spend $1.5 broadcasting in the Sindhi language. What a bizarre approach. What a pro-Islamabad approach. What an approach that does not match America's interest.    Finally, if we are going to win over the Muslim world, we need to have the State Department maybe hire one or a few people--fewer people that are experts in the 1800s European diplomacy and hire at least one person whose job description says ``understand the Quran, the hadith,'' you don't have to write a fatwa but you should have read 1,000 of them.    To think that we are waging a war for the minds of Muslims around the world and haven't hired a single person because of their understanding of that religion and how it is used and how it is misused shows an insular thinking in a bureaucracy that prizes an understanding of the machinations of metronic in European diplomacy two centuries ago.    I yield back.</t>
   </si>
   <si>
@@ -67,6 +82,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. Thank you, Chairman Salmon, for conducting this hearing. I also would like to thank Mr. Rohrabacher and--who is here--I guess Mr. Poe as well, Ranking Member Sherman, and I would like to thank all the members that took the time to be here in this important hearing.    Of course, I would like to thank our panel for being here to discuss the topic at hand--Pakistan. Since 9/11, the United States' relationship with Pakistan has ebbed and flowed. Over the last decade and a half, several missteps have taken both sides into controversy, including instances of miscommunication, competing national interest, and fundamental failure to broaden and deepen the relationship as a whole.    Indeed, it seems that the two countries trend toward a one-dimensional transactional relationship centered along security concerns, instead of a broad partnership that includes trade and cultural linkages, is something that is problematic. However, over the last few years, even the security concerns have not equated to a smooth relationship. While Islamabad has helped the United States capture and kill numerous al-Qaeda members, including several senior leaders in its support for groups like Taliban, the Haqqani Network, Lashkar-e-Tayyiba, these things undermine critical U.S. national security interest.    Further complicating the issue is the fact that both leaders of the Taliban were killed or died within Pakistani borders, and the former head of al-Qaeda, Osama bin Laden, was also killed in Pakistan, only miles from the country's capital. There is little reason to suggest that Pakistan is going to change its strategic calculus.    It is critical that we vigorously consider our relationship with Pakistan and recognize that Islamabad is a willing and able partner in certain areas, while hostile in others. To be sure, accepting this paradigm does not mean abandoning Pakistan altogether. At stake in the region are some of America's most vital national security interests, including ensuring that neither Afghanistan nor Pakistan serves as a safe haven for global terrorists, keeping Pakistan's nuclear weapons out of the hands of terrorists and preventing war between India and Pakistan that could potentially go nuclear.    These interests warrant continued outreach and cooperation with Islamabad. To that end, the United States should consider a more balanced approach when supplying aid, an approach that favors education and economic aid over military assistance. The provision of U.S. weapons cannot reshape Pakistan's will to maintain its militant proxies on its western border, but those weapons do equip Pakistan to challenge India on its eastern border.    I look forward to hearing from our witnesses today and seeing how we can shape this relationship to the benefit of both countries.    With that, I yield back.</t>
   </si>
   <si>
@@ -79,12 +97,18 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you very much, Ambassador.    On the clocks, please look at the amber light and the red lights. I am not going to hold you to--this is too important an issue, and we want to hear everything that you have to say, but I know we have a lot of questions up here, too.    Mr. Roggio.</t>
   </si>
   <si>
+    <t>Roggio</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Roggio. Thank you, sir. Chairman Salmon, Ranking Members Sherman and Keating, and the rest of the committees, thank you very much for having us here today to talk about this extremely important issue.    You properly asked the question of whether Pakistan is a friend or a foe, and unequivocally the answer is a foe. Pakistan may combat some groups that threaten it--movement of the Taliban in Pakistan, Islamic movement in Uzbekistan, groups like that that are fighting the Pakistani State. However, they support numerous terrorist organizations, organizations that are listed by the U.S. Government as foreign terrorist organizations.    In my testimony, I list six and give a brief description of the activities, but we can list dozens or scores of groups that Pakistan supports in India, in Afghanistan, groups that are designated terrorist organizations, groups that provide aid and support for al-Qaeda, groups whose leaders serve as the deep bench for al-Qaeda and other terrorist groups when their leadership is winnowed down via drone strikes by the U.S. and Pakistan's tribal areas.    Again, the evidence is indisputable. Just this weekend, the Indians killed a Kashmiri terrorist who is a member of Hizb-ul-Mujahideen. This is a nasty terrorist organization. And, Pakistan, did they welcome this killing? No. In fact, they denounced it and referred to him as a Kashmiri separatist. This is an individual who recruits online for holy war and is recruiting youth and poisoning the youth to conduct terrorist attacks.    And lest we pretend that, well, this has just been in Pakistan an issue with Pakistan and Kashmir, it is not. These Kashmiri terrorist groups that have been aided by the Pakistani State base themselves in Afghanistan. I could list groups--Lashkar-e-Tayyiba, Harakat-ul-Mujahideen, who the State Department said as recently as 2014 is running training camps inside Afghanistan.    These groups are attacking and killing U.S. soldiers, and I haven't even touched on groups like the Taliban, the Haqqani Network, or the Mullah Nazir Group. These are just small groups. I concur--and for the interest of brevity and time--Ambassador Khalilzad's statements on the Afghan Taliban, Haqqani Network, I concur with 100 percent.    What the Pakistanis are doing, they are playing a fantastic shell game. They have this narrative called good Taliban versus bad Taliban. The good Taliban is any group that the Pakistani likes, and those are groups that don't attack the Pakistani State. These are groups that carry out Pakistan's foreign policy--Haqqani Network, Afghan Taliban, Mullah Nazir Group.    And then, even the Pakistan press referred to this, groups like Lashkar-e-Tayyiba, Hizb-ul-Mujahideen, Harakat-ul-Mujahideen--again, I could go down the list. They are considered ``good Taliban'' as well. And the bad Taliban, they are the ones that fight the Pakistani State. They are the ones being targeted in the Shawal Valley, in North Waziristan. When the Pakistanis go after these groups, they pretend that they are going after the Haqqani Network or the Mullah Nazir Group or the Afghan Taliban, but they are not.    The Pakistanis haven't named a single high, mid-level, or low-level leader killed in one of these operations, because they haven't killed any of them. They haven't captured any of them, although they are selectively targeting in the interest of the Pakistani State.    As a matter of fact, this narrative of the good Taliban versus bad Taliban, my Web site, Long War Journal, has been banned in Pakistan for 4 years because we have reported on this narrative, and it has been an issue that I have not let go of, and we are banned because Pakistan has a history of killing individuals that expose these types of situations.    Syed Shahzad was brutally executed by the ISI for his reporting on links between Pakistan's Intelligence Service and al-Qaeda, and attacks that were occurring within Pakistan. You know, Pakistan is not going to change its calculus. These groups that they support, they are doing this because they feel it is their best chance in countering India, and that is why they support them.    I also believe there is an ideological aspect within large elements within the military and intelligence services as well, and this is being reported on. So you have this confluence of it helps their policy in India, as well as they get the ideological, you know, radical jihadist support as well.    These groups are strategic depth for Afghanistan in case it has to go to war, and it uses them in Afghanistan--I am sorry, strategic depth within Pakistan against India, and it uses these groups also to conduct its policy inside of Afghanistan to target and kill U.S. forces and allied forces.    We have to change our calculus if Pakistan won't change theirs, and I concur with Ambassador Khalilzad's statements we need to--I believe all funding should stop. We should put a brake on the situation until we can really get a handle on it. Money is fungible. If we are funding Pakistani education, they can fund Pakistani militants with the money they are saving.    We have to consider sanctions. We have to consider the possibility of state sponsorship of terrorism. Do we limit or cut off trade with Pakistan? Do we restrict Pakistani's travel to the United States, cut off visas, student visas? All of these options should be on the table, unless Pakistan changes its habits and its--we have been enabling the Pakistani State for 15 years now, nothing has changed, and it has only gotten worse.    Thank you very much.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Dr. Bacon.</t>
   </si>
   <si>
+    <t>Bacon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bacon. Good afternoon. It is an honor to appear before you today to discuss Pakistan's policies toward militant groups. Thank you very much for this opportunity.    After the terrorist attack on Easter Sunday in Lahore that killed 70 people, Pakistani leaders reiterated their pledge to cease their dual track policy of treating some groups as having utility and going after only those that opposed the Pakistani State. However, unfortunately, the opposite has occurred. These distinctions have grown hardened, and the Pakistani State is not willing to reevaluate them.    Most importantly, the calculus of the Pakistani Army, the primary institution in Pakistan that wields power over these policies, remains unwavering. It is evident that no terrorist attack in Pakistan is large enough to cause them to reevaluate their position vis-a-vis their militant proxies. Instead, relations with the four major proxy groups--Lashkar-e-Tayyiba, Jaish-e-Mohamed, the Haqqani Network, and the Afghan Taliban--will remain a deeply entrenched component of Pakistan's national security policies.    Today I would like to outline the Pakistani security establishment's three-prong calculus vis-a-vis these organizations, in part because in order to get Pakistan to truly change its behavior, the United States will have to effect all three of these aspects of its calculus.    First and foremost, as is well-known, Pakistan's security establishment judges groups based on their utility vis-a-vis India. This is not simply about Kashmir. This is also about deep-seated fears that India is inherently aggressive toward Pakistan. This extends to Pakistan's support to the Afghan Taliban and the Haqqani Network, which stems from fears of Indian encirclement and a desire to prevent India from expanding its influence on Pakistan's western border.    As the military's efforts to achieve conventional parity with India grows increasingly futile, and the security situation in Afghanistan continues to deteriorate, Pakistan will remain committed to these policies.    Second, the security establishment evaluates militant groups based on how they affect the threat within Pakistan. Though there is extensive cross-fertilization between groups hostile to Pakistan and those seen as having utility, the so-called good militants not only largely abstain from violence within Pakistan, some also discourage other groups from engaging in violence in Pakistan. Breaking ties with the proxy groups runs the risk that they will turn their guns inward, dangerously compounding the terrorist threat within Pakistan.    Third, the Army raised its capability to dismantle and defeat militant groups. Because the civilian institutions are still not capable of truly dealing with terrorism, this task will fall to the Pakistani Army. Unfortunately, a military approach alone will be insufficient to tackle these four groups, and possibly could be counterproductive in efforts to do so.    It is worth briefly noting that relationships have evolved, especially since the 1990s when the Army provided extensive active assistance to a number of proxy organizations. This included resources, weapons, training, and even cover fire to enable cross-border infiltrations. In essence, it operated in the trenches with militant groups. U.S. and international pressure has shifted the way these relationships function.    By far, the most important asset that the Pakistani State continues to provide is safe haven and protection. The amount of active assistance has decreased. However, in this current environment, safe haven is also the most important asset that Pakistan could provide for these groups. All four organizations are highly capable and almost entirely self-sufficient other than their need for safe haven.    They have other sources of funding and weapons and equipment, as well as a sizeable cadre of capable and experienced operatives. They no longer rely on the Pakistani State for these things. The Pakistani Army did its job well. The remaining asset that they need and that they receive is safe haven. Yet the Army's relationship with Lashkar-e-Tayyiba, Jaish-e-Mohamed, the Haqqani Network, and the Afghan Taliban have proven resilient. These are the relationships that survived the tremendous fallout from 9/11 and the aftermath.    While we have been deeply dissatisfied with Pakistan's counterterrorism efforts, once-friendly militants saw Pakistan's cooperation with the United States as a betrayal, and they turned their guns against their patron. For Pakistan, it has been the worst of both worlds.    While the first rationale still dominates, all three reasons--the proxy group's utility against India and Afghanistan, their mitigation of the domestic threat and ability to worsen it, and the Pakistani State's limited ability to confront them--mutually reinforced the security establishment's ongoing relationship with militant proxies and ensure that these ties will remain intact for the foreseeable future.    I admit that I am skeptical of Pakistani pledges that they will deal with the ``good militants'' once they have taken care of the hostile ones. The bad militants, in their view, are not going away, in part because they work closely with the good militants. In the meantime, the so-called good militants will grow stronger, and the Pakistani State will be even more--will have an even more difficult task confronting them in the future.    I hope that by shedding light on the situation it will help the United States to better respond and manage the challenges ahead.    With that, I thank you for your attention and look forward to your questions.</t>
   </si>
   <si>
@@ -197,6 +221,12 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rohrabacher. And before I get to Mr. Rohrabacher, we have just been pinged for a vote on the floor. And we have 10 votes, and I don't think we will be coming back afterwards. So if I could maybe get both you and Mr. Keating in.</t>
@@ -578,7 +608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,7 +616,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,1397 +638,1656 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
       <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G49" t="s">
+        <v>69</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G51" t="s">
+        <v>69</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>69</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="G53" t="s">
+        <v>69</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>70</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20742.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20742.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -221,6 +230,9 @@
   </si>
   <si>
     <t>400343</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rohrabacher</t>
@@ -608,7 +620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,7 +628,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,1653 +653,1796 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I51" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G53" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>74</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>81</v>
+        <v>24</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
